--- a/app/config/tables/OPVCOVIDHC/Forms/OPVCOVIDHC/OPVCOVIDHC.xlsx
+++ b/app/config/tables/OPVCOVIDHC/Forms/OPVCOVIDHC/OPVCOVIDHC.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F359B3A2-3BF9-4B26-BE06-FE69A0694434}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F29157-0557-49A5-A0BE-B9EB097B4FE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="675" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="675" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="324">
   <si>
     <t>setting_name</t>
   </si>
@@ -437,9 +437,6 @@
     <t>Vidal</t>
   </si>
   <si>
-    <t>data('C_TEST1Q') == '1'||data('C_TEST1Q') == '2'||data('C_TEST1Q') == '5'</t>
-  </si>
-  <si>
     <t>data('C_TEST1Q') == '3'||data('C_TEST1Q') == '4'||data('C_TEST1Q') == '8'</t>
   </si>
   <si>
@@ -452,9 +449,6 @@
     <t>Gastroenterite</t>
   </si>
   <si>
-    <t>data('C_TEST2Q') == '1'||data('C_TEST2Q') == '2'||data('C_TEST2Q') == '5'</t>
-  </si>
-  <si>
     <t>data('C_TEST2Q') == '3'||data('C_TEST2Q') == '4'||data('C_TEST2Q') == '8'</t>
   </si>
   <si>
@@ -470,9 +464,6 @@
     <t>data('C_TEST3Q') == '8'</t>
   </si>
   <si>
-    <t>data('C_TEST3Q') == '1'||data('C_TEST3Q') == '2'||data('C_TEST3Q') == '5'</t>
-  </si>
-  <si>
     <t>C_TEST3RESC</t>
   </si>
   <si>
@@ -815,9 +806,6 @@
     <t>Numero mensal no livro</t>
   </si>
   <si>
-    <t>A pessoa foi identificada no livro de consulta?</t>
-  </si>
-  <si>
     <t>Mesma data?</t>
   </si>
   <si>
@@ -885,6 +873,174 @@
   </si>
   <si>
     <t>CS Cuntum</t>
+  </si>
+  <si>
+    <t>Outside facility</t>
+  </si>
+  <si>
+    <t>Fora centro (greve)</t>
+  </si>
+  <si>
+    <t>data("C_CS") != null</t>
+  </si>
+  <si>
+    <t>Numest; PC: (Se desconhecido "9999")</t>
+  </si>
+  <si>
+    <t>Numero mensal no livro (Se sem numero: "9999")</t>
+  </si>
+  <si>
+    <r>
+      <t>data('C_TEST1Q') == '1'||data('C_TEST1Q') == '2'||data('C_TEST1Q') == '5'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>||data('C_TEST1Q') == '6'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>data('C_TEST2Q') == '1'||data('C_TEST2Q') == '2'||data('C_TEST2Q') == '5'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>||data('C_TEST2Q') == '6'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>data('C_TEST3Q') == '1'||data('C_TEST3Q') == '2'||data('C_TEST3Q') == '5'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>||data('C_TEST3Q') == '6'</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">data("C_DATE") != null </t>
+  </si>
+  <si>
+    <t xml:space="preserve">data("C_NAME") != null </t>
+  </si>
+  <si>
+    <t xml:space="preserve">data("C_NUMEST") != null </t>
+  </si>
+  <si>
+    <t>data("C_IDENT") != null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data("C_SYMPTQUAIS") != null || data('C_SYMPTOUTR') != '1' </t>
+  </si>
+  <si>
+    <t>data("C_TEST") != null || data('C_IDENT') != '1'</t>
+  </si>
+  <si>
+    <t>data("C_TEST1Q") != null || data('C_TEST') != '1'</t>
+  </si>
+  <si>
+    <t>data('C_TEST') != '1' || data('C_TEST2') !=  null</t>
+  </si>
+  <si>
+    <t>data('C_TEST2') != '1' || data('C_TEST2Q') !=  null</t>
+  </si>
+  <si>
+    <t>data('C_TEST2Q') != '8' || data('C_TEST2QOUT') !=  null</t>
+  </si>
+  <si>
+    <t>data('C_TEST2') != '1' || data('C_TEST3') !=  null</t>
+  </si>
+  <si>
+    <t>data('C_TEST3') != '1' || data('C_TEST3Q') !=  null</t>
+  </si>
+  <si>
+    <t>data('C_TEST3Q') != '8' || data('C_TEST3QOUT') !=  null</t>
+  </si>
+  <si>
+    <t>data('C_DIAGN1') != null || data('C_IDENT') != '1'</t>
+  </si>
+  <si>
+    <t>data('C_TRATAMENT1') != null || data('C_IDENT') != '1'</t>
+  </si>
+  <si>
+    <t>data('C_SYMPTOMS') != null || data('C_IDENT') != '1'</t>
+  </si>
+  <si>
+    <t>data('C_SYMPTOUTR') != null || data('C_IDENT') != '1'</t>
+  </si>
+  <si>
+    <t>A pessoa foi identificada no livro de consulta? (Temos infomacao de consulta)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data("C_DATAC") != null || data('C_IDENT') != '1' </t>
+  </si>
+  <si>
+    <t>data('C_TRATAMENT2') != null || data('C_TRATAMENT1') == '0' || data('C_IDENT') != '1'</t>
+  </si>
+  <si>
+    <t>data('C_PROCE') != null  | data('C_IDENT')!='1'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data('C_DIAGN3') != null || data('C_DIAGN2') == '0'  || data('C_DIAGN2') == null </t>
+  </si>
+  <si>
+    <t xml:space="preserve">data('C_DIAGN2') != null || data('C_DIAGN1') == null  || data('C_DIAGN1') == '0' </t>
+  </si>
+  <si>
+    <t>data('C_NMENSAL') != null || data('C_IDENT') != '1' || data("C_CS")=='4'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data('C_TRATAMENT3') != null || data('C_TRATAMENT2') == null || data('C_TRATAMENT2') ==  '0'  </t>
+  </si>
+  <si>
+    <t>data('C_TRATAMENT4') != null || data('C_TRATAMENT3') == '0'  ||  data('C_TRATAMENT2') == null</t>
+  </si>
+  <si>
+    <t>data('C_TRATAMENT5') != null || data('C_TRATAMENT4') == '0'   || data('C_TRATAMENT4') ==null</t>
+  </si>
+  <si>
+    <t>data('C_TRATAMENT6') != null || data('C_TRATAMENT5') == '0'  || data('C_TRATAMENT5') == null</t>
+  </si>
+  <si>
+    <t>data('C_TRATAMENT7') != null || data('C_TRATAMENT6') == '0'  || data('C_TRATAMENT6') ==  null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data('C_PROCE_Q') != null  || data('C_PROCE') != '1'  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">data("C_TEST2RESC")!=null || data('C_TEST2Q') == '3'||data('C_TEST2Q') == '4'||data('C_TEST2Q') == '8' || data('C_TEST2Q') == null </t>
+  </si>
+  <si>
+    <t xml:space="preserve">data("C_TEST2RES")!=null || data('C_TEST2Q') == '1'||data('C_TEST2Q') == '2'||data('C_TEST2Q') == '5' || data('C_TEST2Q') == '6' || data('C_TEST2Q') == null </t>
+  </si>
+  <si>
+    <t xml:space="preserve">data("C_TEST1RESC")!=null || data('C_TEST1Q') == '3'||data('C_TEST1Q') == '4'||data('C_TEST1Q') == '8' || data('C_TEST1Q') == null </t>
+  </si>
+  <si>
+    <t xml:space="preserve">data("C_TEST1RES")!=null || data('C_TEST1Q') == '1'||data('C_TEST1Q') == '2'||data('C_TEST1Q') == '5' || data('C_TEST1Q') == '6' || data('C_TEST1Q') == null </t>
+  </si>
+  <si>
+    <t xml:space="preserve">data("C_TEST3RESC")!=null || data('C_TEST3Q') == '3'||data('C_TEST3Q') == '4'||data('C_TEST3Q') == '8' || data('C_TEST3Q') == null </t>
+  </si>
+  <si>
+    <t xml:space="preserve">data("C_TEST3RES")!=null || data('C_TEST3Q') == '1'||data('C_TEST3Q') == '2'||data('C_TEST3Q') == '5' || data('C_TEST3Q') == '6' || data('C_TEST3Q') == null </t>
   </si>
 </sst>
 </file>
@@ -950,7 +1106,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -966,6 +1122,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -994,7 +1174,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1012,6 +1192,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1411,22 +1597,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{787AB6FC-E5B2-448F-8A60-6571052C1548}">
   <dimension ref="A1:M164"/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.453125" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.81640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.81640625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="11.6328125" style="11" customWidth="1"/>
     <col min="4" max="4" width="9.7265625" style="11" customWidth="1"/>
     <col min="5" max="5" width="10.453125" style="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.26953125" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="53.1796875" style="11" customWidth="1"/>
+    <col min="7" max="7" width="16.7265625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="18.26953125" style="11" customWidth="1"/>
     <col min="9" max="9" width="13.1796875" style="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.54296875" style="11" customWidth="1"/>
     <col min="11" max="11" width="37.453125" style="11" bestFit="1" customWidth="1"/>
@@ -1486,16 +1672,19 @@
         <v>49</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>280</v>
+        <v>276</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
@@ -1522,6 +1711,9 @@
       <c r="H6" s="11" t="s">
         <v>73</v>
       </c>
+      <c r="J6" s="16" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D8" s="11" t="s">
@@ -1531,10 +1723,13 @@
         <v>51</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>201</v>
+        <v>198</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
@@ -1547,8 +1742,11 @@
       <c r="G9" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="H9" s="11" t="s">
-        <v>76</v>
+      <c r="H9" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
@@ -1565,7 +1763,10 @@
         <v>77</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>260</v>
+        <v>305</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
@@ -1595,13 +1796,16 @@
         <v>64</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>261</v>
+        <v>257</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
@@ -1609,7 +1813,7 @@
         <v>111</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
@@ -1620,18 +1824,18 @@
         <v>54</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D18" s="11" t="s">
         <v>49</v>
       </c>
@@ -1645,10 +1849,10 @@
         <v>81</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D19" s="11" t="s">
         <v>47</v>
       </c>
@@ -1656,23 +1860,26 @@
         <v>123</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+        <v>256</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D23" s="11" t="s">
         <v>62</v>
       </c>
@@ -1688,8 +1895,11 @@
       <c r="H23" s="11" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="J23" s="12" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D25" s="11" t="s">
         <v>49</v>
       </c>
@@ -1705,8 +1915,11 @@
       <c r="H25" s="11" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="J25" s="12" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="11" t="s">
         <v>111</v>
       </c>
@@ -1714,7 +1927,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D28" s="11" t="s">
         <v>63</v>
       </c>
@@ -1727,23 +1940,26 @@
       <c r="H28" s="11" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="J28" s="12" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D32" s="11" t="s">
         <v>49</v>
       </c>
@@ -1759,8 +1975,11 @@
       <c r="H32" s="11" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="J32" s="12" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="12" t="s">
         <v>78</v>
       </c>
@@ -1768,7 +1987,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="12"/>
       <c r="D34" s="11" t="s">
         <v>49</v>
@@ -1785,8 +2004,11 @@
       <c r="H34" s="11" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="J34" s="12" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="12" t="s">
         <v>78</v>
       </c>
@@ -1794,13 +2016,13 @@
         <v>118</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="12"/>
       <c r="D36" s="11" t="s">
         <v>63</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G36" s="11" t="s">
         <v>119</v>
@@ -1809,20 +2031,20 @@
         <v>120</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="12" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="12" t="s">
         <v>111</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="12"/>
       <c r="D39" s="11" t="s">
         <v>49</v>
@@ -1839,21 +2061,24 @@
       <c r="H39" s="11" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="J39" s="11" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="12" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="12" t="s">
         <v>111</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.35">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="12"/>
       <c r="D42" s="11" t="s">
         <v>63</v>
@@ -1867,37 +2092,40 @@
       <c r="H42" s="11" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="J42" s="11" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="12" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="12" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B46" s="11" t="s">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B46" s="17" t="s">
         <v>78</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B47" s="11" t="s">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B47" s="17" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B48" s="13"/>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B48" s="18"/>
       <c r="C48" s="13"/>
       <c r="D48" s="13" t="s">
         <v>49</v>
@@ -1914,17 +2142,20 @@
       <c r="H48" s="11" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B49" s="11" t="s">
+      <c r="J48" s="12" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B49" s="17" t="s">
         <v>78</v>
       </c>
       <c r="C49" s="11" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B50" s="12"/>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B50" s="17"/>
       <c r="D50" s="11" t="s">
         <v>49</v>
       </c>
@@ -1940,17 +2171,20 @@
       <c r="H50" s="11" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B51" s="12" t="s">
+      <c r="J50" s="12" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B51" s="17" t="s">
         <v>78</v>
       </c>
       <c r="C51" s="11" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B52" s="12"/>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B52" s="17"/>
       <c r="D52" s="11" t="s">
         <v>63</v>
       </c>
@@ -1963,22 +2197,25 @@
       <c r="H52" s="11" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B53" s="12" t="s">
+      <c r="J52" s="12" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B53" s="17" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B54" s="12" t="s">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B54" s="17" t="s">
         <v>111</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B55" s="12"/>
+        <v>286</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B55" s="17"/>
       <c r="D55" s="11" t="s">
         <v>49</v>
       </c>
@@ -1994,22 +2231,25 @@
       <c r="H55" s="11" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B56" s="12" t="s">
+      <c r="J55" s="11" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B56" s="17" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B57" s="12" t="s">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B57" s="17" t="s">
         <v>111</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B58" s="12"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B58" s="17"/>
       <c r="D58" s="11" t="s">
         <v>63</v>
       </c>
@@ -2022,42 +2262,45 @@
       <c r="H58" s="11" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B59" s="12" t="s">
+      <c r="J58" s="11" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B59" s="17" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B60" s="12" t="s">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B60" s="17" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B61" s="11" t="s">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B61" s="17" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B62" s="12" t="s">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B62" s="17" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B63" s="11" t="s">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B63" s="17" t="s">
         <v>78</v>
       </c>
       <c r="C63" s="11" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B64" s="11" t="s">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B64" s="17" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B65" s="13"/>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B65" s="18"/>
       <c r="C65" s="13"/>
       <c r="D65" s="13" t="s">
         <v>49</v>
@@ -2066,7 +2309,7 @@
         <v>64</v>
       </c>
       <c r="F65" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G65" s="13" t="s">
         <v>87</v>
@@ -2074,17 +2317,20 @@
       <c r="H65" s="11" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B66" s="11" t="s">
+      <c r="J65" s="12" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B66" s="17" t="s">
         <v>78</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B67" s="12"/>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B67" s="17"/>
       <c r="D67" s="11" t="s">
         <v>49</v>
       </c>
@@ -2092,7 +2338,7 @@
         <v>105</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G67" s="11" t="s">
         <v>84</v>
@@ -2100,22 +2346,25 @@
       <c r="H67" s="11" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B68" s="12" t="s">
+      <c r="J67" s="12" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B68" s="17" t="s">
         <v>78</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B69" s="12"/>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B69" s="17"/>
       <c r="D69" s="11" t="s">
         <v>63</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G69" s="11" t="s">
         <v>119</v>
@@ -2123,22 +2372,25 @@
       <c r="H69" s="11" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B70" s="12" t="s">
+      <c r="J69" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B70" s="17" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B71" s="12" t="s">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B71" s="17" t="s">
         <v>111</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B72" s="12"/>
+        <v>287</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B72" s="17"/>
       <c r="D72" s="11" t="s">
         <v>49</v>
       </c>
@@ -2146,7 +2398,7 @@
         <v>90</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G72" s="11" t="s">
         <v>85</v>
@@ -2154,27 +2406,30 @@
       <c r="H72" s="11" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B73" s="12" t="s">
+      <c r="J72" s="20" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B73" s="17" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B74" s="12" t="s">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B74" s="17" t="s">
         <v>111</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B75" s="12"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B75" s="17"/>
       <c r="D75" s="11" t="s">
         <v>63</v>
       </c>
       <c r="F75" s="11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G75" s="11" t="s">
         <v>85</v>
@@ -2182,33 +2437,36 @@
       <c r="H75" s="11" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B76" s="12" t="s">
+      <c r="J75" s="20" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B76" s="17" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B77" s="12" t="s">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B77" s="17" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B78" s="11" t="s">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B78" s="17" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B79" s="12" t="s">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B79" s="17" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B80" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D81" s="11" t="s">
         <v>49</v>
       </c>
@@ -2216,30 +2474,34 @@
         <v>129</v>
       </c>
       <c r="F81" t="s">
+        <v>147</v>
+      </c>
+      <c r="G81" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="G81" s="11" t="s">
+      <c r="H81" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="J81" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B82" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C82" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="H81" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B82" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="C82" s="11" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B83" s="17"/>
       <c r="D83" s="11" t="s">
         <v>63</v>
       </c>
       <c r="E83"/>
       <c r="F83" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G83" s="11" t="s">
         <v>119</v>
@@ -2247,35 +2509,40 @@
       <c r="H83" s="11" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B84" s="11" t="s">
+      <c r="J83"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B84" s="17" t="s">
         <v>80</v>
       </c>
       <c r="E84"/>
       <c r="F84"/>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B85" s="11" t="s">
         <v>40</v>
       </c>
       <c r="E85"/>
       <c r="F85"/>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B86" s="11" t="s">
+    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B86" s="17" t="s">
         <v>111</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B88" s="11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B87" s="17"/>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B88" s="17" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B89" s="17"/>
       <c r="D89" s="11" t="s">
         <v>49</v>
       </c>
@@ -2283,30 +2550,34 @@
         <v>129</v>
       </c>
       <c r="F89" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G89" s="11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H89" s="11" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B90" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="J89" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B90" s="17" t="s">
         <v>111</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.35">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B91" s="17"/>
       <c r="D91" s="11" t="s">
         <v>63</v>
       </c>
       <c r="E91"/>
       <c r="F91" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G91" s="11" t="s">
         <v>119</v>
@@ -2315,39 +2586,40 @@
         <v>119</v>
       </c>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B92" s="11" t="s">
+    <row r="92" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B92" s="17" t="s">
         <v>80</v>
       </c>
       <c r="E92"/>
       <c r="F92"/>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B93" s="11" t="s">
+    <row r="93" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B93" s="17" t="s">
         <v>40</v>
       </c>
       <c r="E93"/>
       <c r="F93"/>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B94" s="11" t="s">
+    <row r="94" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B94" s="17" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B95" s="11" t="s">
+    <row r="95" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B95" s="17" t="s">
         <v>111</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B96" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B96" s="17" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B97" s="17"/>
       <c r="D97" s="11" t="s">
         <v>49</v>
       </c>
@@ -2355,30 +2627,34 @@
         <v>129</v>
       </c>
       <c r="F97" t="s">
+        <v>158</v>
+      </c>
+      <c r="G97" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="G97" s="11" t="s">
-        <v>164</v>
-      </c>
       <c r="H97" s="11" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B98" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="J97" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B98" s="17" t="s">
         <v>111</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.35">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B99" s="17"/>
       <c r="D99" s="11" t="s">
         <v>63</v>
       </c>
       <c r="E99"/>
       <c r="F99" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G99" s="11" t="s">
         <v>119</v>
@@ -2387,29 +2663,29 @@
         <v>119</v>
       </c>
     </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B100" s="11" t="s">
+    <row r="100" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B100" s="17" t="s">
         <v>80</v>
       </c>
       <c r="E100"/>
       <c r="F100"/>
     </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B101" s="11" t="s">
+    <row r="101" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B101" s="17" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B102" s="11" t="s">
+    <row r="102" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B102" s="17" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B103" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D104" s="11" t="s">
         <v>49</v>
       </c>
@@ -2417,30 +2693,34 @@
         <v>130</v>
       </c>
       <c r="F104" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G104" s="11" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H104" s="11" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B105" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="J104" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B105" s="17" t="s">
         <v>111</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.35">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B106" s="17"/>
       <c r="D106" s="11" t="s">
         <v>63</v>
       </c>
       <c r="E106"/>
       <c r="F106" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G106" s="11" t="s">
         <v>119</v>
@@ -2449,34 +2729,35 @@
         <v>119</v>
       </c>
     </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B107" s="11" t="s">
+    <row r="107" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B107" s="17" t="s">
         <v>80</v>
       </c>
       <c r="E107"/>
       <c r="F107"/>
     </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B108" s="11" t="s">
         <v>40</v>
       </c>
       <c r="E108"/>
       <c r="F108"/>
     </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B109" s="11" t="s">
+    <row r="109" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B109" s="17" t="s">
         <v>111</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B110" s="11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B110" s="17" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B111" s="17"/>
       <c r="D111" s="11" t="s">
         <v>49</v>
       </c>
@@ -2484,30 +2765,34 @@
         <v>130</v>
       </c>
       <c r="F111" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G111" s="11" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H111" s="11" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B112" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="J111" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B112" s="17" t="s">
         <v>111</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.35">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="113" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B113" s="17"/>
       <c r="D113" s="11" t="s">
         <v>63</v>
       </c>
       <c r="E113"/>
       <c r="F113" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G113" s="11" t="s">
         <v>119</v>
@@ -2516,41 +2801,42 @@
         <v>119</v>
       </c>
     </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B114" s="11" t="s">
+    <row r="114" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B114" s="17" t="s">
         <v>80</v>
       </c>
       <c r="E114"/>
       <c r="F114"/>
     </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B115" s="11" t="s">
+    <row r="115" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B115" s="17" t="s">
         <v>40</v>
       </c>
       <c r="E115"/>
       <c r="F115"/>
     </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B116" s="11" t="s">
+    <row r="116" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B116" s="17" t="s">
         <v>80</v>
       </c>
       <c r="E116"/>
       <c r="F116"/>
     </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B117" s="11" t="s">
+    <row r="117" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B117" s="17" t="s">
         <v>111</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B118" s="11" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="118" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B118" s="17" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B119" s="17"/>
       <c r="D119" s="11" t="s">
         <v>49</v>
       </c>
@@ -2558,30 +2844,34 @@
         <v>130</v>
       </c>
       <c r="F119" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G119" s="11" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H119" s="11" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B120" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="J119" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="120" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B120" s="17" t="s">
         <v>111</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.35">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="121" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B121" s="17"/>
       <c r="D121" s="11" t="s">
         <v>63</v>
       </c>
       <c r="E121"/>
       <c r="F121" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G121" s="11" t="s">
         <v>119</v>
@@ -2590,41 +2880,42 @@
         <v>119</v>
       </c>
     </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B122" s="11" t="s">
+    <row r="122" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B122" s="17" t="s">
         <v>80</v>
       </c>
       <c r="E122"/>
       <c r="F122"/>
     </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B123" s="11" t="s">
+    <row r="123" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B123" s="17" t="s">
         <v>40</v>
       </c>
       <c r="E123"/>
       <c r="F123"/>
     </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B124" s="11" t="s">
+    <row r="124" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B124" s="17" t="s">
         <v>80</v>
       </c>
       <c r="E124"/>
       <c r="F124"/>
     </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B125" s="11" t="s">
+    <row r="125" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B125" s="17" t="s">
         <v>111</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="126" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B126" s="11" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="126" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B126" s="17" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="127" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B127" s="17"/>
       <c r="D127" s="11" t="s">
         <v>49</v>
       </c>
@@ -2632,30 +2923,34 @@
         <v>130</v>
       </c>
       <c r="F127" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G127" s="11" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H127" s="11" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="128" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B128" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="J127" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="128" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B128" s="17" t="s">
         <v>111</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="129" spans="2:8" x14ac:dyDescent="0.35">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="129" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B129" s="17"/>
       <c r="D129" s="11" t="s">
         <v>63</v>
       </c>
       <c r="E129"/>
       <c r="F129" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G129" s="11" t="s">
         <v>119</v>
@@ -2664,45 +2959,49 @@
         <v>119</v>
       </c>
     </row>
-    <row r="130" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B130" s="11" t="s">
+    <row r="130" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B130" s="17" t="s">
         <v>80</v>
       </c>
       <c r="E130"/>
       <c r="F130"/>
     </row>
-    <row r="131" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B131" s="11" t="s">
+    <row r="131" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B131" s="17" t="s">
         <v>40</v>
       </c>
       <c r="E131"/>
       <c r="F131"/>
     </row>
-    <row r="132" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B132" s="11" t="s">
+    <row r="132" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B132" s="17" t="s">
         <v>80</v>
       </c>
       <c r="E132"/>
       <c r="F132"/>
     </row>
-    <row r="133" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B133" s="11" t="s">
+    <row r="133" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B133" s="19" t="s">
         <v>111</v>
       </c>
       <c r="C133" s="11" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E133"/>
       <c r="F133"/>
     </row>
-    <row r="134" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B134" s="11" t="s">
+    <row r="134" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B134" s="19" t="s">
         <v>39</v>
       </c>
       <c r="E134"/>
       <c r="F134"/>
     </row>
-    <row r="136" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B135" s="19"/>
+    </row>
+    <row r="136" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B136" s="19"/>
       <c r="D136" s="11" t="s">
         <v>49</v>
       </c>
@@ -2710,30 +3009,34 @@
         <v>130</v>
       </c>
       <c r="F136" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G136" s="11" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H136" s="11" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="137" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B137" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="J136" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="137" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B137" s="19" t="s">
         <v>111</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="138" spans="2:8" x14ac:dyDescent="0.35">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="138" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B138" s="19"/>
       <c r="D138" s="11" t="s">
         <v>63</v>
       </c>
       <c r="E138"/>
       <c r="F138" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G138" s="11" t="s">
         <v>119</v>
@@ -2742,41 +3045,42 @@
         <v>119</v>
       </c>
     </row>
-    <row r="139" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B139" s="11" t="s">
+    <row r="139" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B139" s="19" t="s">
         <v>80</v>
       </c>
       <c r="E139"/>
       <c r="F139"/>
     </row>
-    <row r="140" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B140" s="11" t="s">
+    <row r="140" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B140" s="19" t="s">
         <v>40</v>
       </c>
       <c r="E140"/>
       <c r="F140"/>
     </row>
-    <row r="141" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B141" s="11" t="s">
+    <row r="141" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B141" s="19" t="s">
         <v>80</v>
       </c>
       <c r="E141"/>
       <c r="F141"/>
     </row>
-    <row r="142" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B142" s="11" t="s">
+    <row r="142" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B142" s="20" t="s">
         <v>111</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="143" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B143" s="11" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="143" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B143" s="20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="144" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B144" s="20"/>
       <c r="D144" s="11" t="s">
         <v>49</v>
       </c>
@@ -2784,30 +3088,34 @@
         <v>130</v>
       </c>
       <c r="F144" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G144" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H144" s="11" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B145" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="J144" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="145" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B145" s="20" t="s">
         <v>111</v>
       </c>
       <c r="C145" s="11" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="146" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B146" s="20"/>
       <c r="D146" s="11" t="s">
         <v>63</v>
       </c>
       <c r="E146"/>
       <c r="F146" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G146" s="11" t="s">
         <v>119</v>
@@ -2816,39 +3124,40 @@
         <v>119</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B147" s="11" t="s">
+    <row r="147" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B147" s="20" t="s">
         <v>80</v>
       </c>
       <c r="E147"/>
       <c r="F147"/>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B148" s="11" t="s">
+    <row r="148" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B148" s="20" t="s">
         <v>40</v>
       </c>
       <c r="E148"/>
       <c r="F148"/>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B149" s="11" t="s">
+    <row r="149" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B149" s="20" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B150" s="11" t="s">
+    <row r="150" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B150" s="20" t="s">
         <v>111</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B151" s="11" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="151" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B151" s="20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B152" s="20"/>
       <c r="D152" s="11" t="s">
         <v>49</v>
       </c>
@@ -2856,30 +3165,34 @@
         <v>130</v>
       </c>
       <c r="F152" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G152" s="11" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H152" s="11" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B153" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="J152" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="153" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B153" s="20" t="s">
         <v>111</v>
       </c>
       <c r="C153" s="11" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="154" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B154" s="20"/>
       <c r="D154" s="11" t="s">
         <v>63</v>
       </c>
       <c r="E154"/>
       <c r="F154" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G154" s="11" t="s">
         <v>119</v>
@@ -2888,80 +3201,87 @@
         <v>119</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B155" s="11" t="s">
+    <row r="155" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B155" s="20" t="s">
         <v>80</v>
       </c>
       <c r="E155"/>
       <c r="F155"/>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B156" s="11" t="s">
+    <row r="156" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B156" s="20" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B157" s="11" t="s">
+    <row r="157" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B157" s="20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="158" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B158" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D158" s="11" t="s">
+    <row r="159" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="D159" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E158" t="s">
+      <c r="E159" t="s">
         <v>64</v>
       </c>
-      <c r="F158" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="G158" s="11" t="s">
+      <c r="F159" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="G159" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="H159" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="J159" s="11" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="160" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B160" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C160" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="H158" s="11" t="s">
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A161" s="14"/>
+      <c r="B161" s="20"/>
+      <c r="D161" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E161"/>
+      <c r="F161" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B159" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="C159" s="11" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A160" s="14"/>
-      <c r="D160" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E160"/>
-      <c r="F160" t="s">
-        <v>255</v>
-      </c>
-      <c r="G160" s="11" t="s">
+      <c r="G161" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="H160" s="11" t="s">
+      <c r="H161" s="11" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B161" s="11" t="s">
+      <c r="J161" s="11" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B162" s="20" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B162" s="11" t="s">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B163" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B163" s="11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B164" s="11" t="s">
         <v>80</v>
       </c>
@@ -2974,11 +3294,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D123"/>
+  <dimension ref="A1:D124"/>
   <sheetViews>
     <sheetView zoomScale="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A95" sqref="A95"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3142,51 +3462,51 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="A12" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="B12" t="str">
+      <c r="B12" s="12" t="str">
+        <f>"6"</f>
+        <v>6</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" t="str">
         <f>"8"</f>
         <v>8</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>115</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B13" s="7"/>
-    </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>90</v>
-      </c>
-      <c r="B14" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D14" t="s">
-        <v>92</v>
-      </c>
+      <c r="B14" s="7"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>90</v>
       </c>
       <c r="B15" t="str">
-        <f>"2"</f>
-        <v>2</v>
+        <f>"1"</f>
+        <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -3194,29 +3514,29 @@
         <v>90</v>
       </c>
       <c r="B16" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" t="str">
         <f>"9"</f>
         <v>9</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>124</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" t="s">
         <v>125</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>89</v>
-      </c>
-      <c r="B19" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>96</v>
-      </c>
-      <c r="D19" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -3224,14 +3544,14 @@
         <v>89</v>
       </c>
       <c r="B20" t="str">
-        <f>"2"</f>
-        <v>2</v>
+        <f>"1"</f>
+        <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D20" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -3239,14 +3559,14 @@
         <v>89</v>
       </c>
       <c r="B21" t="str">
-        <f>"3"</f>
-        <v>3</v>
+        <f>"2"</f>
+        <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D21" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -3254,14 +3574,14 @@
         <v>89</v>
       </c>
       <c r="B22" t="str">
-        <f>"4"</f>
-        <v>4</v>
+        <f>"3"</f>
+        <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
@@ -3269,14 +3589,14 @@
         <v>89</v>
       </c>
       <c r="B23" t="str">
-        <f>"5"</f>
-        <v>5</v>
+        <f>"4"</f>
+        <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -3284,14 +3604,14 @@
         <v>89</v>
       </c>
       <c r="B24" t="str">
-        <f>"6"</f>
-        <v>6</v>
+        <f>"5"</f>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="D24" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
@@ -3299,14 +3619,14 @@
         <v>89</v>
       </c>
       <c r="B25" t="str">
-        <f>"7"</f>
-        <v>7</v>
+        <f>"6"</f>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>209</v>
+        <v>128</v>
       </c>
       <c r="D25" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
@@ -3314,14 +3634,14 @@
         <v>89</v>
       </c>
       <c r="B26" t="str">
-        <f>"8"</f>
-        <v>8</v>
+        <f>"7"</f>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>97</v>
+        <v>206</v>
       </c>
       <c r="D26" t="s">
-        <v>97</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
@@ -3329,14 +3649,14 @@
         <v>89</v>
       </c>
       <c r="B27" t="str">
-        <f>"9"</f>
-        <v>9</v>
+        <f>"8"</f>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>208</v>
+        <v>97</v>
       </c>
       <c r="D27" t="s">
-        <v>208</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
@@ -3344,14 +3664,14 @@
         <v>89</v>
       </c>
       <c r="B28" t="str">
-        <f>"10"</f>
-        <v>10</v>
+        <f>"9"</f>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>98</v>
+        <v>205</v>
       </c>
       <c r="D28" t="s">
-        <v>98</v>
+        <v>205</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
@@ -3359,14 +3679,14 @@
         <v>89</v>
       </c>
       <c r="B29" t="str">
-        <f>"11"</f>
-        <v>11</v>
+        <f>"10"</f>
+        <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D29" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
@@ -3374,14 +3694,14 @@
         <v>89</v>
       </c>
       <c r="B30" t="str">
-        <f>"12"</f>
-        <v>12</v>
+        <f>"11"</f>
+        <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="D30" t="s">
-        <v>266</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
@@ -3389,14 +3709,14 @@
         <v>89</v>
       </c>
       <c r="B31" t="str">
-        <f>"13"</f>
-        <v>13</v>
+        <f>"12"</f>
+        <v>12</v>
       </c>
       <c r="C31" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D31" t="s">
-        <v>126</v>
+        <v>262</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
@@ -3404,14 +3724,14 @@
         <v>89</v>
       </c>
       <c r="B32" t="str">
-        <f>"14"</f>
-        <v>14</v>
+        <f>"13"</f>
+        <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>203</v>
+        <v>126</v>
       </c>
       <c r="D32" t="s">
-        <v>203</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
@@ -3419,14 +3739,14 @@
         <v>89</v>
       </c>
       <c r="B33" t="str">
-        <f>"15"</f>
-        <v>15</v>
+        <f>"14"</f>
+        <v>14</v>
       </c>
       <c r="C33" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D33" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
@@ -3434,14 +3754,14 @@
         <v>89</v>
       </c>
       <c r="B34" t="str">
-        <f>"16"</f>
-        <v>16</v>
+        <f>"15"</f>
+        <v>15</v>
       </c>
       <c r="C34" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D34" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
@@ -3449,14 +3769,14 @@
         <v>89</v>
       </c>
       <c r="B35" t="str">
-        <f>"17"</f>
-        <v>17</v>
+        <f>"16"</f>
+        <v>16</v>
       </c>
       <c r="C35" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D35" t="s">
-        <v>265</v>
+        <v>202</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
@@ -3464,14 +3784,14 @@
         <v>89</v>
       </c>
       <c r="B36" t="str">
-        <f>"18"</f>
-        <v>18</v>
+        <f>"17"</f>
+        <v>17</v>
       </c>
       <c r="C36" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D36" t="s">
-        <v>207</v>
+        <v>261</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
@@ -3479,14 +3799,14 @@
         <v>89</v>
       </c>
       <c r="B37" t="str">
-        <f>"19"</f>
-        <v>19</v>
+        <f>"18"</f>
+        <v>18</v>
       </c>
       <c r="C37" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D37" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
@@ -3494,47 +3814,47 @@
         <v>89</v>
       </c>
       <c r="B38" t="str">
+        <f>"19"</f>
+        <v>19</v>
+      </c>
+      <c r="C38" t="s">
+        <v>208</v>
+      </c>
+      <c r="D38" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39" t="str">
         <f>"20"</f>
         <v>20</v>
       </c>
-      <c r="C38" t="s">
-        <v>212</v>
-      </c>
-      <c r="D38" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B39" s="7"/>
+      <c r="C39" t="s">
+        <v>209</v>
+      </c>
+      <c r="D39" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>129</v>
-      </c>
-      <c r="B40" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C40" t="s">
-        <v>136</v>
-      </c>
-      <c r="D40" t="s">
-        <v>136</v>
-      </c>
+      <c r="B40" s="7"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>129</v>
       </c>
       <c r="B41" t="str">
-        <f>"2"</f>
-        <v>2</v>
+        <f>"1"</f>
+        <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>264</v>
+        <v>135</v>
       </c>
       <c r="D41" t="s">
-        <v>264</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
@@ -3542,14 +3862,14 @@
         <v>129</v>
       </c>
       <c r="B42" t="str">
-        <f>"3"</f>
-        <v>3</v>
+        <f>"2"</f>
+        <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>137</v>
+        <v>260</v>
       </c>
       <c r="D42" t="s">
-        <v>137</v>
+        <v>260</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
@@ -3557,14 +3877,14 @@
         <v>129</v>
       </c>
       <c r="B43" t="str">
-        <f>"4"</f>
-        <v>4</v>
+        <f>"3"</f>
+        <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>214</v>
+        <v>136</v>
       </c>
       <c r="D43" t="s">
-        <v>214</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
@@ -3572,14 +3892,14 @@
         <v>129</v>
       </c>
       <c r="B44" t="str">
-        <f>"5"</f>
-        <v>5</v>
+        <f>"4"</f>
+        <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D44" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
@@ -3587,14 +3907,14 @@
         <v>129</v>
       </c>
       <c r="B45" t="str">
-        <f>"6"</f>
-        <v>6</v>
+        <f>"5"</f>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D45" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
@@ -3602,14 +3922,14 @@
         <v>129</v>
       </c>
       <c r="B46" t="str">
-        <f>"7"</f>
-        <v>7</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>217</v>
+        <f>"6"</f>
+        <v>6</v>
+      </c>
+      <c r="C46" t="s">
+        <v>213</v>
+      </c>
+      <c r="D46" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
@@ -3617,14 +3937,14 @@
         <v>129</v>
       </c>
       <c r="B47" t="str">
-        <f>"8"</f>
-        <v>8</v>
-      </c>
-      <c r="C47" t="s">
-        <v>138</v>
-      </c>
-      <c r="D47" t="s">
-        <v>138</v>
+        <f>"7"</f>
+        <v>7</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
@@ -3632,14 +3952,14 @@
         <v>129</v>
       </c>
       <c r="B48" t="str">
-        <f>"9"</f>
-        <v>9</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>263</v>
+        <f>"8"</f>
+        <v>8</v>
+      </c>
+      <c r="C48" t="s">
+        <v>137</v>
+      </c>
+      <c r="D48" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
@@ -3647,14 +3967,14 @@
         <v>129</v>
       </c>
       <c r="B49" t="str">
-        <f>"10"</f>
-        <v>10</v>
+        <f>"9"</f>
+        <v>9</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>218</v>
+        <v>259</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>218</v>
+        <v>259</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
@@ -3662,14 +3982,14 @@
         <v>129</v>
       </c>
       <c r="B50" t="str">
-        <f>"11"</f>
-        <v>11</v>
+        <f>"10"</f>
+        <v>10</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
@@ -3677,14 +3997,14 @@
         <v>129</v>
       </c>
       <c r="B51" t="str">
-        <f>"12"</f>
-        <v>12</v>
+        <f>"11"</f>
+        <v>11</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
@@ -3692,14 +4012,14 @@
         <v>129</v>
       </c>
       <c r="B52" t="str">
-        <f>"13"</f>
-        <v>13</v>
+        <f>"12"</f>
+        <v>12</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
@@ -3707,14 +4027,14 @@
         <v>129</v>
       </c>
       <c r="B53" t="str">
-        <f>"14"</f>
-        <v>14</v>
+        <f>"13"</f>
+        <v>13</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
@@ -3722,14 +4042,14 @@
         <v>129</v>
       </c>
       <c r="B54" t="str">
-        <f>"15"</f>
-        <v>15</v>
+        <f>"14"</f>
+        <v>14</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>270</v>
+        <v>219</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>270</v>
+        <v>220</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
@@ -3737,14 +4057,14 @@
         <v>129</v>
       </c>
       <c r="B55" t="str">
-        <f>"16"</f>
-        <v>16</v>
+        <f>"15"</f>
+        <v>15</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
@@ -3752,14 +4072,14 @@
         <v>129</v>
       </c>
       <c r="B56" t="str">
-        <f>"17"</f>
-        <v>17</v>
+        <f>"16"</f>
+        <v>16</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
@@ -3767,14 +4087,14 @@
         <v>129</v>
       </c>
       <c r="B57" t="str">
-        <f>"77"</f>
-        <v>77</v>
+        <f>"17"</f>
+        <v>17</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>116</v>
+        <v>273</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>116</v>
+        <v>273</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
@@ -3782,29 +4102,29 @@
         <v>129</v>
       </c>
       <c r="B58" t="str">
+        <f>"77"</f>
+        <v>77</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>129</v>
+      </c>
+      <c r="B59" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
-      <c r="C58" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>130</v>
-      </c>
-      <c r="B59" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
       <c r="C59" s="7" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
@@ -3812,14 +4132,14 @@
         <v>130</v>
       </c>
       <c r="B60" t="str">
-        <f>"2"</f>
-        <v>2</v>
+        <f>"1"</f>
+        <v>1</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>226</v>
+        <v>131</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>226</v>
+        <v>131</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
@@ -3827,14 +4147,14 @@
         <v>130</v>
       </c>
       <c r="B61" t="str">
-        <f>"3"</f>
-        <v>3</v>
+        <f>"2"</f>
+        <v>2</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
@@ -3842,14 +4162,14 @@
         <v>130</v>
       </c>
       <c r="B62" t="str">
-        <f>"4"</f>
-        <v>4</v>
+        <f>"3"</f>
+        <v>3</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
@@ -3857,14 +4177,14 @@
         <v>130</v>
       </c>
       <c r="B63" t="str">
-        <f>"5"</f>
-        <v>5</v>
+        <f>"4"</f>
+        <v>4</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
@@ -3872,14 +4192,14 @@
         <v>130</v>
       </c>
       <c r="B64" t="str">
-        <f>"6"</f>
-        <v>6</v>
+        <f>"5"</f>
+        <v>5</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
@@ -3887,14 +4207,14 @@
         <v>130</v>
       </c>
       <c r="B65" t="str">
-        <f>"7"</f>
-        <v>7</v>
+        <f>"6"</f>
+        <v>6</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
@@ -3902,14 +4222,14 @@
         <v>130</v>
       </c>
       <c r="B66" t="str">
-        <f>"8"</f>
-        <v>8</v>
+        <f>"7"</f>
+        <v>7</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
@@ -3917,14 +4237,14 @@
         <v>130</v>
       </c>
       <c r="B67" t="str">
-        <f>"9"</f>
-        <v>9</v>
+        <f>"8"</f>
+        <v>8</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
@@ -3932,14 +4252,14 @@
         <v>130</v>
       </c>
       <c r="B68" t="str">
-        <f>"10"</f>
-        <v>10</v>
+        <f>"9"</f>
+        <v>9</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
@@ -3947,14 +4267,14 @@
         <v>130</v>
       </c>
       <c r="B69" t="str">
-        <f>"11"</f>
-        <v>11</v>
+        <f>"10"</f>
+        <v>10</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
@@ -3962,14 +4282,14 @@
         <v>130</v>
       </c>
       <c r="B70" t="str">
-        <f>"12"</f>
-        <v>12</v>
+        <f>"11"</f>
+        <v>11</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
@@ -3977,14 +4297,14 @@
         <v>130</v>
       </c>
       <c r="B71" t="str">
-        <f>"13"</f>
-        <v>13</v>
+        <f>"12"</f>
+        <v>12</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
@@ -3992,14 +4312,14 @@
         <v>130</v>
       </c>
       <c r="B72" t="str">
-        <f>"14"</f>
-        <v>14</v>
+        <f>"13"</f>
+        <v>13</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
@@ -4007,14 +4327,14 @@
         <v>130</v>
       </c>
       <c r="B73" t="str">
-        <f>"15"</f>
-        <v>15</v>
+        <f>"14"</f>
+        <v>14</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
@@ -4022,14 +4342,14 @@
         <v>130</v>
       </c>
       <c r="B74" t="str">
-        <f>"16"</f>
-        <v>16</v>
+        <f>"15"</f>
+        <v>15</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
@@ -4037,14 +4357,14 @@
         <v>130</v>
       </c>
       <c r="B75" t="str">
-        <f>"17"</f>
-        <v>17</v>
+        <f>"16"</f>
+        <v>16</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
@@ -4052,14 +4372,14 @@
         <v>130</v>
       </c>
       <c r="B76" t="str">
-        <f>"18"</f>
-        <v>18</v>
+        <f>"17"</f>
+        <v>17</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
@@ -4067,14 +4387,14 @@
         <v>130</v>
       </c>
       <c r="B77" t="str">
-        <f>"19"</f>
-        <v>19</v>
+        <f>"18"</f>
+        <v>18</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
@@ -4082,14 +4402,14 @@
         <v>130</v>
       </c>
       <c r="B78" t="str">
-        <f>"20"</f>
-        <v>20</v>
+        <f>"19"</f>
+        <v>19</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
@@ -4097,14 +4417,14 @@
         <v>130</v>
       </c>
       <c r="B79" t="str">
-        <f>"21"</f>
-        <v>21</v>
+        <f>"20"</f>
+        <v>20</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
@@ -4112,14 +4432,14 @@
         <v>130</v>
       </c>
       <c r="B80" t="str">
-        <f>"22"</f>
-        <v>22</v>
+        <f>"21"</f>
+        <v>21</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
@@ -4127,14 +4447,14 @@
         <v>130</v>
       </c>
       <c r="B81" t="str">
-        <f>"23"</f>
-        <v>23</v>
+        <f>"22"</f>
+        <v>22</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
@@ -4142,14 +4462,14 @@
         <v>130</v>
       </c>
       <c r="B82" t="str">
-        <f>"24"</f>
-        <v>24</v>
+        <f>"23"</f>
+        <v>23</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
@@ -4157,14 +4477,14 @@
         <v>130</v>
       </c>
       <c r="B83" t="str">
-        <f>"25"</f>
-        <v>25</v>
+        <f>"24"</f>
+        <v>24</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
@@ -4172,14 +4492,14 @@
         <v>130</v>
       </c>
       <c r="B84" t="str">
-        <f>"26"</f>
-        <v>26</v>
+        <f>"25"</f>
+        <v>25</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
@@ -4187,14 +4507,14 @@
         <v>130</v>
       </c>
       <c r="B85" t="str">
-        <f>"27"</f>
-        <v>27</v>
+        <f>"26"</f>
+        <v>26</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
@@ -4202,14 +4522,14 @@
         <v>130</v>
       </c>
       <c r="B86" t="str">
-        <f>"28"</f>
-        <v>28</v>
+        <f>"27"</f>
+        <v>27</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
@@ -4217,14 +4537,14 @@
         <v>130</v>
       </c>
       <c r="B87" t="str">
-        <f>"29"</f>
-        <v>29</v>
+        <f>"28"</f>
+        <v>28</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
@@ -4232,14 +4552,14 @@
         <v>130</v>
       </c>
       <c r="B88" t="str">
-        <f>"30"</f>
-        <v>30</v>
+        <f>"29"</f>
+        <v>29</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
@@ -4247,14 +4567,14 @@
         <v>130</v>
       </c>
       <c r="B89" t="str">
-        <f>"31"</f>
-        <v>31</v>
+        <f>"30"</f>
+        <v>30</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
@@ -4262,72 +4582,94 @@
         <v>130</v>
       </c>
       <c r="B90" t="str">
-        <f>"77"</f>
-        <v>77</v>
+        <f>"31"</f>
+        <v>31</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>116</v>
+        <v>272</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>116</v>
+        <v>272</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>130</v>
       </c>
-      <c r="B91" s="7" t="str">
+      <c r="B91" t="str">
+        <f>"77"</f>
+        <v>77</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>130</v>
+      </c>
+      <c r="B92" s="7" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
-      <c r="C91" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="D91" s="7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B92" s="7"/>
-      <c r="C92" s="7"/>
+      <c r="C92" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
-        <v>281</v>
-      </c>
-      <c r="B93" t="str">
+      <c r="B93" s="7"/>
+      <c r="C93" s="7"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>277</v>
+      </c>
+      <c r="B94" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C93" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
-        <v>281</v>
-      </c>
-      <c r="B94" t="str">
+      <c r="C94" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>277</v>
+      </c>
+      <c r="B95" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C94" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="D94" s="7" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B95" s="7"/>
-      <c r="C95" s="7"/>
+      <c r="C95" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B96" s="7"/>
-      <c r="C96" s="7"/>
+      <c r="A96" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="B96" s="12" t="str">
+        <f>"4"</f>
+        <v>4</v>
+      </c>
+      <c r="C96" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="D96" s="15" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B97" s="7"/>
@@ -4335,6 +4677,7 @@
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B98" s="7"/>
+      <c r="C98" s="7"/>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B99" s="7"/>
@@ -4354,8 +4697,8 @@
     <row r="104" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B104" s="7"/>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B106" s="7"/>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B105" s="7"/>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B107" s="7"/>
@@ -4407,6 +4750,9 @@
     </row>
     <row r="123" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B123" s="7"/>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B124" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -4499,8 +4845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
@@ -4657,7 +5003,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>63</v>
@@ -4745,7 +5091,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>49</v>
@@ -4756,7 +5102,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>49</v>
@@ -4767,7 +5113,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>63</v>
@@ -4778,7 +5124,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="11" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>49</v>
@@ -4789,7 +5135,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>63</v>
@@ -4800,7 +5146,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>49</v>
@@ -4811,7 +5157,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>49</v>
@@ -4822,7 +5168,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>49</v>
@@ -4833,7 +5179,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>48</v>
@@ -4844,7 +5190,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>48</v>
@@ -4855,7 +5201,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>48</v>
@@ -4866,7 +5212,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>49</v>
@@ -4877,7 +5223,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>49</v>
@@ -4888,7 +5234,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B40" s="11" t="s">
         <v>49</v>
@@ -4899,7 +5245,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B41" s="11" t="s">
         <v>49</v>
@@ -4910,7 +5256,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B42" s="11" t="s">
         <v>49</v>
@@ -4921,7 +5267,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>49</v>
@@ -4932,7 +5278,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B44" s="11" t="s">
         <v>49</v>
@@ -4943,7 +5289,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B45" s="11" t="s">
         <v>48</v>
@@ -4954,7 +5300,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B46" s="11" t="s">
         <v>48</v>
@@ -4965,7 +5311,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B47" s="11" t="s">
         <v>48</v>
@@ -4976,7 +5322,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B48" s="11" t="s">
         <v>48</v>
@@ -4987,7 +5333,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B49" s="11" t="s">
         <v>48</v>
@@ -4998,7 +5344,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B50" s="11" t="s">
         <v>48</v>
@@ -5009,7 +5355,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B51" s="11" t="s">
         <v>48</v>
@@ -5020,7 +5366,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B53" s="11" t="s">
         <v>49</v>
@@ -5031,7 +5377,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B54" s="11" t="s">
         <v>48</v>
@@ -5042,7 +5388,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B56" s="11" t="s">
         <v>49</v>
@@ -5053,7 +5399,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B58" s="11" t="s">
         <v>49</v>

--- a/app/config/tables/OPVCOVIDHC/Forms/OPVCOVIDHC/OPVCOVIDHC.xlsx
+++ b/app/config/tables/OPVCOVIDHC/Forms/OPVCOVIDHC/OPVCOVIDHC.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F29157-0557-49A5-A0BE-B9EB097B4FE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E702461D-5190-40E4-9D45-022DA466EB54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="675" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="675" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="326">
   <si>
     <t>setting_name</t>
   </si>
@@ -1041,6 +1041,12 @@
   </si>
   <si>
     <t xml:space="preserve">data("C_TEST3RES")!=null || data('C_TEST3Q') == '1'||data('C_TEST3Q') == '2'||data('C_TEST3Q') == '5' || data('C_TEST3Q') == '6' || data('C_TEST3Q') == null </t>
+  </si>
+  <si>
+    <t>None of the above</t>
+  </si>
+  <si>
+    <t>Nenhum sintoma da lista</t>
   </si>
 </sst>
 </file>
@@ -1597,7 +1603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{787AB6FC-E5B2-448F-8A60-6571052C1548}">
   <dimension ref="A1:M164"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
+    <sheetView zoomScale="117" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="J21" sqref="J21"/>
@@ -3294,11 +3300,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D124"/>
+  <dimension ref="A1:D125"/>
   <sheetViews>
-    <sheetView zoomScale="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" zoomScale="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3840,36 +3846,36 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B40" s="7"/>
+      <c r="A40" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" t="str">
+        <f>"77"</f>
+        <v>77</v>
+      </c>
+      <c r="C40" t="s">
+        <v>324</v>
+      </c>
+      <c r="D40" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>129</v>
-      </c>
-      <c r="B41" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C41" t="s">
-        <v>135</v>
-      </c>
-      <c r="D41" t="s">
-        <v>135</v>
-      </c>
+      <c r="B41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>129</v>
       </c>
       <c r="B42" t="str">
-        <f>"2"</f>
-        <v>2</v>
+        <f>"1"</f>
+        <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>260</v>
+        <v>135</v>
       </c>
       <c r="D42" t="s">
-        <v>260</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
@@ -3877,14 +3883,14 @@
         <v>129</v>
       </c>
       <c r="B43" t="str">
-        <f>"3"</f>
-        <v>3</v>
+        <f>"2"</f>
+        <v>2</v>
       </c>
       <c r="C43" t="s">
-        <v>136</v>
+        <v>260</v>
       </c>
       <c r="D43" t="s">
-        <v>136</v>
+        <v>260</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
@@ -3892,14 +3898,14 @@
         <v>129</v>
       </c>
       <c r="B44" t="str">
-        <f>"4"</f>
-        <v>4</v>
+        <f>"3"</f>
+        <v>3</v>
       </c>
       <c r="C44" t="s">
-        <v>211</v>
+        <v>136</v>
       </c>
       <c r="D44" t="s">
-        <v>211</v>
+        <v>136</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
@@ -3907,14 +3913,14 @@
         <v>129</v>
       </c>
       <c r="B45" t="str">
-        <f>"5"</f>
-        <v>5</v>
+        <f>"4"</f>
+        <v>4</v>
       </c>
       <c r="C45" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D45" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
@@ -3922,14 +3928,14 @@
         <v>129</v>
       </c>
       <c r="B46" t="str">
-        <f>"6"</f>
-        <v>6</v>
+        <f>"5"</f>
+        <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D46" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
@@ -3937,14 +3943,14 @@
         <v>129</v>
       </c>
       <c r="B47" t="str">
-        <f>"7"</f>
-        <v>7</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>214</v>
+        <f>"6"</f>
+        <v>6</v>
+      </c>
+      <c r="C47" t="s">
+        <v>213</v>
+      </c>
+      <c r="D47" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
@@ -3952,14 +3958,14 @@
         <v>129</v>
       </c>
       <c r="B48" t="str">
-        <f>"8"</f>
-        <v>8</v>
-      </c>
-      <c r="C48" t="s">
-        <v>137</v>
-      </c>
-      <c r="D48" t="s">
-        <v>137</v>
+        <f>"7"</f>
+        <v>7</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
@@ -3967,14 +3973,14 @@
         <v>129</v>
       </c>
       <c r="B49" t="str">
-        <f>"9"</f>
-        <v>9</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>259</v>
+        <f>"8"</f>
+        <v>8</v>
+      </c>
+      <c r="C49" t="s">
+        <v>137</v>
+      </c>
+      <c r="D49" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
@@ -3982,14 +3988,14 @@
         <v>129</v>
       </c>
       <c r="B50" t="str">
-        <f>"10"</f>
-        <v>10</v>
+        <f>"9"</f>
+        <v>9</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>215</v>
+        <v>259</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>215</v>
+        <v>259</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
@@ -3997,14 +4003,14 @@
         <v>129</v>
       </c>
       <c r="B51" t="str">
-        <f>"11"</f>
-        <v>11</v>
+        <f>"10"</f>
+        <v>10</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
@@ -4012,14 +4018,14 @@
         <v>129</v>
       </c>
       <c r="B52" t="str">
-        <f>"12"</f>
-        <v>12</v>
+        <f>"11"</f>
+        <v>11</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
@@ -4027,14 +4033,14 @@
         <v>129</v>
       </c>
       <c r="B53" t="str">
-        <f>"13"</f>
-        <v>13</v>
+        <f>"12"</f>
+        <v>12</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
@@ -4042,14 +4048,14 @@
         <v>129</v>
       </c>
       <c r="B54" t="str">
-        <f>"14"</f>
-        <v>14</v>
+        <f>"13"</f>
+        <v>13</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
@@ -4057,14 +4063,14 @@
         <v>129</v>
       </c>
       <c r="B55" t="str">
-        <f>"15"</f>
-        <v>15</v>
+        <f>"14"</f>
+        <v>14</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>266</v>
+        <v>219</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>266</v>
+        <v>220</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
@@ -4072,14 +4078,14 @@
         <v>129</v>
       </c>
       <c r="B56" t="str">
-        <f>"16"</f>
-        <v>16</v>
+        <f>"15"</f>
+        <v>15</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
@@ -4087,14 +4093,14 @@
         <v>129</v>
       </c>
       <c r="B57" t="str">
-        <f>"17"</f>
-        <v>17</v>
+        <f>"16"</f>
+        <v>16</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
@@ -4102,14 +4108,14 @@
         <v>129</v>
       </c>
       <c r="B58" t="str">
-        <f>"77"</f>
-        <v>77</v>
+        <f>"17"</f>
+        <v>17</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>116</v>
+        <v>273</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>116</v>
+        <v>273</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
@@ -4117,29 +4123,29 @@
         <v>129</v>
       </c>
       <c r="B59" t="str">
+        <f>"77"</f>
+        <v>77</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>129</v>
+      </c>
+      <c r="B60" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C60" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="D59" s="7" t="s">
+      <c r="D60" s="7" t="s">
         <v>149</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>130</v>
-      </c>
-      <c r="B60" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
@@ -4147,14 +4153,14 @@
         <v>130</v>
       </c>
       <c r="B61" t="str">
-        <f>"2"</f>
-        <v>2</v>
+        <f>"1"</f>
+        <v>1</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>223</v>
+        <v>131</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>223</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
@@ -4162,14 +4168,14 @@
         <v>130</v>
       </c>
       <c r="B62" t="str">
-        <f>"3"</f>
-        <v>3</v>
+        <f>"2"</f>
+        <v>2</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
@@ -4177,14 +4183,14 @@
         <v>130</v>
       </c>
       <c r="B63" t="str">
-        <f>"4"</f>
-        <v>4</v>
+        <f>"3"</f>
+        <v>3</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
@@ -4192,14 +4198,14 @@
         <v>130</v>
       </c>
       <c r="B64" t="str">
-        <f>"5"</f>
-        <v>5</v>
+        <f>"4"</f>
+        <v>4</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
@@ -4207,14 +4213,14 @@
         <v>130</v>
       </c>
       <c r="B65" t="str">
-        <f>"6"</f>
-        <v>6</v>
+        <f>"5"</f>
+        <v>5</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
@@ -4222,14 +4228,14 @@
         <v>130</v>
       </c>
       <c r="B66" t="str">
-        <f>"7"</f>
-        <v>7</v>
+        <f>"6"</f>
+        <v>6</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
@@ -4237,14 +4243,14 @@
         <v>130</v>
       </c>
       <c r="B67" t="str">
-        <f>"8"</f>
-        <v>8</v>
+        <f>"7"</f>
+        <v>7</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
@@ -4252,14 +4258,14 @@
         <v>130</v>
       </c>
       <c r="B68" t="str">
-        <f>"9"</f>
-        <v>9</v>
+        <f>"8"</f>
+        <v>8</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
@@ -4267,14 +4273,14 @@
         <v>130</v>
       </c>
       <c r="B69" t="str">
-        <f>"10"</f>
-        <v>10</v>
+        <f>"9"</f>
+        <v>9</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
@@ -4282,14 +4288,14 @@
         <v>130</v>
       </c>
       <c r="B70" t="str">
-        <f>"11"</f>
-        <v>11</v>
+        <f>"10"</f>
+        <v>10</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
@@ -4297,14 +4303,14 @@
         <v>130</v>
       </c>
       <c r="B71" t="str">
-        <f>"12"</f>
-        <v>12</v>
+        <f>"11"</f>
+        <v>11</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
@@ -4312,14 +4318,14 @@
         <v>130</v>
       </c>
       <c r="B72" t="str">
-        <f>"13"</f>
-        <v>13</v>
+        <f>"12"</f>
+        <v>12</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
@@ -4327,14 +4333,14 @@
         <v>130</v>
       </c>
       <c r="B73" t="str">
-        <f>"14"</f>
-        <v>14</v>
+        <f>"13"</f>
+        <v>13</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
@@ -4342,14 +4348,14 @@
         <v>130</v>
       </c>
       <c r="B74" t="str">
-        <f>"15"</f>
-        <v>15</v>
+        <f>"14"</f>
+        <v>14</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
@@ -4357,14 +4363,14 @@
         <v>130</v>
       </c>
       <c r="B75" t="str">
-        <f>"16"</f>
-        <v>16</v>
+        <f>"15"</f>
+        <v>15</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
@@ -4372,14 +4378,14 @@
         <v>130</v>
       </c>
       <c r="B76" t="str">
-        <f>"17"</f>
-        <v>17</v>
+        <f>"16"</f>
+        <v>16</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
@@ -4387,14 +4393,14 @@
         <v>130</v>
       </c>
       <c r="B77" t="str">
-        <f>"18"</f>
-        <v>18</v>
+        <f>"17"</f>
+        <v>17</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
@@ -4402,14 +4408,14 @@
         <v>130</v>
       </c>
       <c r="B78" t="str">
-        <f>"19"</f>
-        <v>19</v>
+        <f>"18"</f>
+        <v>18</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
@@ -4417,14 +4423,14 @@
         <v>130</v>
       </c>
       <c r="B79" t="str">
-        <f>"20"</f>
-        <v>20</v>
+        <f>"19"</f>
+        <v>19</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
@@ -4432,14 +4438,14 @@
         <v>130</v>
       </c>
       <c r="B80" t="str">
-        <f>"21"</f>
-        <v>21</v>
+        <f>"20"</f>
+        <v>20</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
@@ -4447,14 +4453,14 @@
         <v>130</v>
       </c>
       <c r="B81" t="str">
-        <f>"22"</f>
-        <v>22</v>
+        <f>"21"</f>
+        <v>21</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
@@ -4462,14 +4468,14 @@
         <v>130</v>
       </c>
       <c r="B82" t="str">
-        <f>"23"</f>
-        <v>23</v>
+        <f>"22"</f>
+        <v>22</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
@@ -4477,14 +4483,14 @@
         <v>130</v>
       </c>
       <c r="B83" t="str">
-        <f>"24"</f>
-        <v>24</v>
+        <f>"23"</f>
+        <v>23</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
@@ -4492,14 +4498,14 @@
         <v>130</v>
       </c>
       <c r="B84" t="str">
-        <f>"25"</f>
-        <v>25</v>
+        <f>"24"</f>
+        <v>24</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
@@ -4507,14 +4513,14 @@
         <v>130</v>
       </c>
       <c r="B85" t="str">
-        <f>"26"</f>
-        <v>26</v>
+        <f>"25"</f>
+        <v>25</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
@@ -4522,14 +4528,14 @@
         <v>130</v>
       </c>
       <c r="B86" t="str">
-        <f>"27"</f>
-        <v>27</v>
+        <f>"26"</f>
+        <v>26</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
@@ -4537,14 +4543,14 @@
         <v>130</v>
       </c>
       <c r="B87" t="str">
-        <f>"28"</f>
-        <v>28</v>
+        <f>"27"</f>
+        <v>27</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
@@ -4552,14 +4558,14 @@
         <v>130</v>
       </c>
       <c r="B88" t="str">
-        <f>"29"</f>
-        <v>29</v>
+        <f>"28"</f>
+        <v>28</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
@@ -4567,14 +4573,14 @@
         <v>130</v>
       </c>
       <c r="B89" t="str">
-        <f>"30"</f>
-        <v>30</v>
+        <f>"29"</f>
+        <v>29</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
@@ -4582,14 +4588,14 @@
         <v>130</v>
       </c>
       <c r="B90" t="str">
-        <f>"31"</f>
-        <v>31</v>
+        <f>"30"</f>
+        <v>30</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
@@ -4597,125 +4603,137 @@
         <v>130</v>
       </c>
       <c r="B91" t="str">
-        <f>"77"</f>
-        <v>77</v>
+        <f>"31"</f>
+        <v>31</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>116</v>
+        <v>272</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>116</v>
+        <v>272</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>130</v>
       </c>
-      <c r="B92" s="7" t="str">
+      <c r="B92" t="str">
+        <f>"77"</f>
+        <v>77</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>130</v>
+      </c>
+      <c r="B93" s="7" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
-      <c r="C92" s="7" t="s">
+      <c r="C93" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="D92" s="7" t="s">
+      <c r="D93" s="7" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B93" s="7"/>
-      <c r="C93" s="7"/>
-    </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
-        <v>277</v>
-      </c>
-      <c r="B94" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C94" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="D94" s="7" t="s">
-        <v>278</v>
-      </c>
+      <c r="B94" s="7"/>
+      <c r="C94" s="7"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>277</v>
       </c>
       <c r="B95" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>277</v>
+      </c>
+      <c r="B96" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C95" s="7" t="s">
+      <c r="C96" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="D95" s="7" t="s">
+      <c r="D96" s="7" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A96" s="12" t="s">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A97" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="B96" s="12" t="str">
+      <c r="B97" s="12" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
-      <c r="C96" s="15" t="s">
+      <c r="C97" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="D96" s="15" t="s">
+      <c r="D97" s="15" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B97" s="7"/>
-      <c r="C97" s="7"/>
-    </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B98" s="7"/>
       <c r="C98" s="7"/>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B99" s="7"/>
-    </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C99" s="7"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B100" s="7"/>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B101" s="7"/>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B102" s="7"/>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B103" s="7"/>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B104" s="7"/>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B105" s="7"/>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B107" s="7"/>
-    </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B106" s="7"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B108" s="7"/>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B109" s="7"/>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B110" s="7"/>
     </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B111" s="7"/>
     </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B112" s="7"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.35">
@@ -4753,6 +4771,9 @@
     </row>
     <row r="124" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B124" s="7"/>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B125" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
